--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.814110.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.814110.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49ADD76F-54FE-4B5A-8B19-0E7F67A0D883}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51586145-2271-4922-8F85-FDE47A7ABE5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-18T065622.194" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-02-24T062737.925" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>

--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.814110.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.814110.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51586145-2271-4922-8F85-FDE47A7ABE5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5104EADA-E85A-4E6C-AB8B-CAF26DD81287}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-24T062737.925" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-03-03T062842.620" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
